--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,625 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lid - Portion (3.25oz)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$2.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$5.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>H&amp;M/JP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lid - Portion (2oz)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$2.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$4.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sleeve</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cup - Portion (3.25oz)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$5.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>H&amp;M/JP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cup - Portion (2oz)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$2.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mop Head Cut (White)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chili Sauce - Sriracha</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$3.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H&amp;M</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wrap Paper - 15x10.75</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$5.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$5.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tea Bags - English Breakfast (Twinings)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$7.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tea Bags - Earl Grey Lavender (Twinings)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$3.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$20.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tea Bags - Lemon Ginger (Twinings)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$3.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$22.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Monin - Orange</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$8.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$26.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Monin - Cranberry</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$8.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$34.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Monin - Butter Pecan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$6.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$20.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Monin - Caramel Sugar Free</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$8.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$8.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tuna - Ahi (Sesame Seared)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HILLCREST</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FRZ Fruit - Mango</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$51.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$51.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sweet Street - Chocolate Lovin</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$45.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$45.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sweet Street - Pie Oreo Cookie Bash Sliced</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Grandma's</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Grandma's Coffee Cake - Blueberry</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$18.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DV / GM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Joe Tea - Black Unsweetened</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$22.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$22.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Joe Tea - Half &amp; Half</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$22.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$44.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Joe Tea - Lemon</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$22.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$44.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Joe Tea - Peach</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$22.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$66.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Whitefish Salad</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BJs</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Celsius - Vibe Peach, Tropical, Arctic</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$28.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$28.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
